--- a/automation_JAVA/src/test/resources/Source.xlsx
+++ b/automation_JAVA/src/test/resources/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devra\IdeaProjects\automation_JAVA\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCBFEF2-5E57-46AF-B858-FE355B5F2499}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905C680-6520-42AC-9DC3-9368941DD987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1B212EFF-288D-4FC3-9CC2-25DEF5A4CC9C}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>site</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>https://www.gmail.com</t>
   </si>
@@ -425,7 +422,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,42 +433,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
